--- a/Assignment 1/KIM_data_dictionary.xlsx
+++ b/Assignment 1/KIM_data_dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\UCLA_PhD_Epi\2022_1Winter\EPIDEM207_Reproducibility_in_epidemiology_research\EPIDEM207_Git\EPIDEM207-2022\Assignment 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD57A3A-9DC6-4D3C-8BAA-A678C49E58C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E3F1A0-8CF0-43AF-B375-EC04EE8DD7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B419D853-1A87-483E-B32B-D807339D7DF2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="76">
   <si>
     <t>Number</t>
   </si>
@@ -197,12 +197,6 @@
 3=Obesity (BMI &gt;=25 kg/m^2)</t>
   </si>
   <si>
-    <t>1=1st quartile
-2=2nd quartile
-3=3rd quartile
-4=4th quartile</t>
-  </si>
-  <si>
     <t>Glutamic oxaloacetic transaminase or aspartate aminotransferase (AST) (IU/L)</t>
   </si>
   <si>
@@ -261,6 +255,26 @@
   </si>
   <si>
     <t>C-reactive protein (mg/L)</t>
+  </si>
+  <si>
+    <t>1=Q1
+2=Q2
+3=Q3
+4=Q4</t>
+  </si>
+  <si>
+    <t>MS_5cri</t>
+  </si>
+  <si>
+    <t>Metabolic syndrome, number of criteria</t>
+  </si>
+  <si>
+    <t>0=0
+1=1
+2=2
+3=3
+4=4
+5=5</t>
   </si>
 </sst>
 </file>
@@ -615,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3F7C037-C9E8-4565-8747-61942B8DB76A}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -699,7 +713,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -713,7 +727,7 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -727,7 +741,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -741,7 +755,7 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -755,7 +769,7 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
@@ -769,7 +783,7 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
@@ -783,7 +797,7 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -806,18 +820,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
@@ -828,10 +842,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>20</v>
@@ -845,10 +859,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>20</v>
@@ -857,15 +871,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>26</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="E16" t="s">
         <v>6</v>
@@ -876,10 +893,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E17" t="s">
         <v>6</v>
@@ -890,10 +907,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E18" t="s">
         <v>6</v>
@@ -904,41 +921,41 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="E20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>31</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="E21" t="s">
         <v>6</v>
@@ -949,10 +966,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E22" t="s">
         <v>6</v>
@@ -963,10 +980,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E23" t="s">
         <v>6</v>
@@ -977,75 +994,72 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E24" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="E25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="E26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
+        <v>38</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="E27" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="E28" t="s">
         <v>6</v>
@@ -1056,10 +1070,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>20</v>
@@ -1068,15 +1082,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="E30" t="s">
         <v>6</v>
@@ -1087,10 +1104,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="E31" t="s">
         <v>6</v>
@@ -1101,10 +1118,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E32" t="s">
         <v>6</v>
@@ -1115,29 +1132,43 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E33" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
         <v>49</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>50</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E35" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Assignment 1/KIM_data_dictionary.xlsx
+++ b/Assignment 1/KIM_data_dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\UCLA_PhD_Epi\2022_1Winter\EPIDEM207_Reproducibility_in_epidemiology_research\EPIDEM207_Git\EPIDEM207-2022\Assignment 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E3F1A0-8CF0-43AF-B375-EC04EE8DD7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97AE275E-36FD-45CE-993A-936B2C681682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B419D853-1A87-483E-B32B-D807339D7DF2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="83">
   <si>
     <t>Number</t>
   </si>
@@ -275,6 +275,32 @@
 3=3
 4=4
 5=5</t>
+  </si>
+  <si>
+    <t>VFA_</t>
+  </si>
+  <si>
+    <t>Underweight</t>
+  </si>
+  <si>
+    <t>Agegroup</t>
+  </si>
+  <si>
+    <t>Underweight (BMI &lt;18.5 kg/m^2)</t>
+  </si>
+  <si>
+    <t>Age group (years)</t>
+  </si>
+  <si>
+    <t>Character</t>
+  </si>
+  <si>
+    <t>1=20-29 years
+2=30-39 years
+3=40-49 years
+4=50-59 years
+5=60-69 years
+6=70 years and older</t>
   </si>
 </sst>
 </file>
@@ -629,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3F7C037-C9E8-4565-8747-61942B8DB76A}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A35"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1070,10 +1096,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>20</v>
@@ -1087,10 +1113,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>20</v>
@@ -1099,15 +1125,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="E31" t="s">
         <v>6</v>
@@ -1118,10 +1147,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="E32" t="s">
         <v>6</v>
@@ -1132,10 +1161,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E33" t="s">
         <v>6</v>
@@ -1146,30 +1175,78 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E34" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
         <v>49</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>50</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E35" t="s">
-        <v>6</v>
+      <c r="E36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
